--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1527,28 +1527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.21376730135901</v>
+        <v>112.4572199151011</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.1202593202199</v>
+        <v>153.8689295501696</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.5150977289901</v>
+        <v>139.1838948703425</v>
       </c>
       <c r="AD2" t="n">
-        <v>81213.76730135901</v>
+        <v>112457.2199151011</v>
       </c>
       <c r="AE2" t="n">
-        <v>111120.2593202199</v>
+        <v>153868.9295501696</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.641905531261451e-06</v>
+        <v>6.156821998114646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.564236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>100515.0977289901</v>
+        <v>139183.8948703425</v>
       </c>
     </row>
     <row r="3">
@@ -1633,28 +1633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.34291318961567</v>
+        <v>99.17197110732808</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.19223007139</v>
+        <v>135.6914660275715</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.96195407864353</v>
+        <v>122.7412629541051</v>
       </c>
       <c r="AD3" t="n">
-        <v>78342.91318961568</v>
+        <v>99171.97110732808</v>
       </c>
       <c r="AE3" t="n">
-        <v>107192.23007139</v>
+        <v>135691.4660275715</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.913810762623105e-06</v>
+        <v>6.616491282636157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.173611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>96961.95407864352</v>
+        <v>122741.2629541051</v>
       </c>
     </row>
   </sheetData>
@@ -1930,28 +1930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.39308394643967</v>
+        <v>95.57430914271072</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.156143563597</v>
+        <v>130.7689862099403</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.31106600247006</v>
+        <v>118.2885777015232</v>
       </c>
       <c r="AD2" t="n">
-        <v>75393.08394643967</v>
+        <v>95574.30914271071</v>
       </c>
       <c r="AE2" t="n">
-        <v>103156.143563597</v>
+        <v>130768.9862099403</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.066023051696708e-06</v>
+        <v>7.041502157147328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>93311.06600247006</v>
+        <v>118288.5777015232</v>
       </c>
     </row>
     <row r="3">
@@ -2036,28 +2036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.18642128129839</v>
+        <v>95.36764647756942</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.8733785878375</v>
+        <v>130.4862212341808</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.05528771913383</v>
+        <v>118.032799418187</v>
       </c>
       <c r="AD3" t="n">
-        <v>75186.42128129839</v>
+        <v>95367.64647756942</v>
       </c>
       <c r="AE3" t="n">
-        <v>102873.3785878375</v>
+        <v>130486.2212341808</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.10673398978781e-06</v>
+        <v>7.112004993639701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>93055.28771913383</v>
+        <v>118032.799418187</v>
       </c>
     </row>
   </sheetData>
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.54618472785579</v>
+        <v>94.72168936540932</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.41966987197459</v>
+        <v>129.6023942157073</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.59926629123721</v>
+        <v>117.2333236098973</v>
       </c>
       <c r="AD2" t="n">
-        <v>67546.18472785578</v>
+        <v>94721.68936540931</v>
       </c>
       <c r="AE2" t="n">
-        <v>92419.66987197459</v>
+        <v>129602.3942157073</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.390460496830813e-06</v>
+        <v>8.307696041966887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.329861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>83599.26629123722</v>
+        <v>117233.3236098973</v>
       </c>
     </row>
   </sheetData>
@@ -2630,28 +2630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.14733270783859</v>
+        <v>89.14068377433431</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.9786752927352</v>
+        <v>121.9662161494127</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.81860522973705</v>
+        <v>110.3259316608042</v>
       </c>
       <c r="AD2" t="n">
-        <v>70147.33270783859</v>
+        <v>89140.68377433431</v>
       </c>
       <c r="AE2" t="n">
-        <v>95978.67529273521</v>
+        <v>121966.2161494127</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.359228902550943e-06</v>
+        <v>7.941568345869615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>86818.60522973705</v>
+        <v>110325.9316608042</v>
       </c>
     </row>
   </sheetData>
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.88616046246177</v>
+        <v>92.29411036366338</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.14835143696175</v>
+        <v>126.2808735282932</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.54471929984584</v>
+        <v>114.2288041951053</v>
       </c>
       <c r="AD2" t="n">
-        <v>65886.16046246178</v>
+        <v>92294.11036366338</v>
       </c>
       <c r="AE2" t="n">
-        <v>90148.35143696175</v>
+        <v>126280.8735282932</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.280838725459073e-06</v>
+        <v>8.389064613660421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>81544.71929984583</v>
+        <v>114228.8041951053</v>
       </c>
     </row>
   </sheetData>
@@ -3224,28 +3224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.09706241963052</v>
+        <v>96.44856490821346</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.1193579679546</v>
+        <v>131.9651815177429</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.18235257595596</v>
+        <v>119.3706098080201</v>
       </c>
       <c r="AD2" t="n">
-        <v>76097.06241963051</v>
+        <v>96448.56490821346</v>
       </c>
       <c r="AE2" t="n">
-        <v>104119.3579679546</v>
+        <v>131965.1815177429</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.035528506954917e-06</v>
+        <v>6.943050957696226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.147569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>94182.35257595596</v>
+        <v>119370.6098080201</v>
       </c>
     </row>
     <row r="3">
@@ -3330,28 +3330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.14109244511239</v>
+        <v>96.49259493369532</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.1796017912864</v>
+        <v>132.0254253410748</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.23684681334181</v>
+        <v>119.425104045406</v>
       </c>
       <c r="AD3" t="n">
-        <v>76141.09244511239</v>
+        <v>96492.59493369532</v>
       </c>
       <c r="AE3" t="n">
-        <v>104179.6017912864</v>
+        <v>132025.4253410748</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.041199812182251e-06</v>
+        <v>6.952808331760655e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>94236.84681334181</v>
+        <v>119425.104045406</v>
       </c>
     </row>
   </sheetData>
@@ -3627,28 +3627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.16186911882666</v>
+        <v>99.46108934136807</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.15734406712176</v>
+        <v>136.087050350381</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.64829228249546</v>
+        <v>123.0990932643519</v>
       </c>
       <c r="AD2" t="n">
-        <v>65161.86911882665</v>
+        <v>99461.08934136806</v>
       </c>
       <c r="AE2" t="n">
-        <v>89157.34406712175</v>
+        <v>136087.0503503811</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.141577316535113e-06</v>
+        <v>8.302455943108688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>80648.29228249546</v>
+        <v>123099.0932643519</v>
       </c>
     </row>
   </sheetData>
@@ -3924,28 +3924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.71632432032774</v>
+        <v>92.3449173175084</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.49368295285218</v>
+        <v>126.3503898439885</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.99814549211781</v>
+        <v>114.2916859711975</v>
       </c>
       <c r="AD2" t="n">
-        <v>72716.32432032774</v>
+        <v>92344.9173175084</v>
       </c>
       <c r="AE2" t="n">
-        <v>99493.68295285218</v>
+        <v>126350.3898439885</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.239418424647015e-06</v>
+        <v>7.508325048090258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.095486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>89998.14549211781</v>
+        <v>114291.6859711975</v>
       </c>
     </row>
   </sheetData>
@@ -4221,28 +4221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.46845685260085</v>
+        <v>94.4729297488029</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.8910279821389</v>
+        <v>129.2620303337668</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.16669127650505</v>
+        <v>116.9254435791454</v>
       </c>
       <c r="AD2" t="n">
-        <v>74468.45685260085</v>
+        <v>94472.9297488029</v>
       </c>
       <c r="AE2" t="n">
-        <v>101891.0279821389</v>
+        <v>129262.0303337668</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.127800819164201e-06</v>
+        <v>7.198524192339089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92166.69127650505</v>
+        <v>116925.4435791454</v>
       </c>
     </row>
   </sheetData>
@@ -4518,28 +4518,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.49406968837144</v>
+        <v>110.3357534593269</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.7672931784273</v>
+        <v>150.9662455528863</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.38669537336069</v>
+        <v>136.5582389598164</v>
       </c>
       <c r="AD2" t="n">
-        <v>79494.06968837144</v>
+        <v>110335.7534593269</v>
       </c>
       <c r="AE2" t="n">
-        <v>108767.2931784273</v>
+        <v>150966.2455528863</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.758473007086087e-06</v>
+        <v>6.389155014065755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.434027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>98386.69537336069</v>
+        <v>136558.2389598164</v>
       </c>
     </row>
     <row r="3">
@@ -4624,28 +4624,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.89729195517963</v>
+        <v>97.5722321114291</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.2142673221278</v>
+        <v>133.5026325578801</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.17276531808218</v>
+        <v>120.7613286787132</v>
       </c>
       <c r="AD3" t="n">
-        <v>76897.29195517962</v>
+        <v>97572.2321114291</v>
       </c>
       <c r="AE3" t="n">
-        <v>105214.2673221278</v>
+        <v>133502.6325578801</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.016740974576471e-06</v>
+        <v>6.828193441733772e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.086805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>95172.76531808218</v>
+        <v>120761.3286787132</v>
       </c>
     </row>
   </sheetData>
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.92177407872136</v>
+        <v>90.13815630958011</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.03830014231842</v>
+        <v>123.3310020775179</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.77710097086918</v>
+        <v>111.5604643354205</v>
       </c>
       <c r="AD2" t="n">
-        <v>70921.77407872136</v>
+        <v>90138.15630958011</v>
       </c>
       <c r="AE2" t="n">
-        <v>97038.30014231842</v>
+        <v>123331.0020775179</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.336870464878371e-06</v>
+        <v>7.820403724953001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.095486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>87777.10097086919</v>
+        <v>111560.4643354205</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.43468993810006</v>
+        <v>86.93822044560335</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.63536189871364</v>
+        <v>118.9527086572201</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.69893437717914</v>
+        <v>107.6000290941811</v>
       </c>
       <c r="AD2" t="n">
-        <v>68434.68993810007</v>
+        <v>86938.22044560335</v>
       </c>
       <c r="AE2" t="n">
-        <v>93635.36189871364</v>
+        <v>118952.7086572201</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.395270346878364e-06</v>
+        <v>8.200169551027585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>84698.93437717915</v>
+        <v>107600.0290941811</v>
       </c>
     </row>
   </sheetData>
@@ -8240,28 +8240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.60752673713702</v>
+        <v>93.33740247602256</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.13535659840592</v>
+        <v>127.7083518232219</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.43752607395253</v>
+        <v>115.5200459650448</v>
       </c>
       <c r="AD2" t="n">
-        <v>66607.52673713703</v>
+        <v>93337.40247602256</v>
       </c>
       <c r="AE2" t="n">
-        <v>91135.35659840592</v>
+        <v>127708.3518232219</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.372153300532756e-06</v>
+        <v>8.407812932142537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82437.52607395253</v>
+        <v>115520.0459650448</v>
       </c>
     </row>
   </sheetData>
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.25352790910281</v>
+        <v>106.7764540549413</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.2287086027636</v>
+        <v>146.0962550826009</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.6630213256169</v>
+        <v>132.1530335449389</v>
       </c>
       <c r="AD2" t="n">
-        <v>73253.52790910282</v>
+        <v>106776.4540549413</v>
       </c>
       <c r="AE2" t="n">
-        <v>100228.7086027636</v>
+        <v>146096.2550826009</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.857011159066254e-06</v>
+        <v>7.95546859917858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.623263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>90663.02132561689</v>
+        <v>132153.0335449389</v>
       </c>
     </row>
   </sheetData>
@@ -8834,28 +8834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.39942532585107</v>
+        <v>93.21996677477662</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.4283318848982</v>
+        <v>127.5476711158798</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.84359284187767</v>
+        <v>115.3747003988946</v>
       </c>
       <c r="AD2" t="n">
-        <v>73399.42532585107</v>
+        <v>93219.96677477662</v>
       </c>
       <c r="AE2" t="n">
-        <v>100428.3318848982</v>
+        <v>127547.6711158798</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.211402334093732e-06</v>
+        <v>7.399267770547914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>90843.59284187766</v>
+        <v>115374.7003988946</v>
       </c>
     </row>
   </sheetData>
@@ -9131,28 +9131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.61582816227246</v>
+        <v>98.13173121565436</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.1974002602519</v>
+        <v>134.2681639156391</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.06206942842782</v>
+        <v>121.453798798118</v>
       </c>
       <c r="AD2" t="n">
-        <v>77615.82816227246</v>
+        <v>98131.73121565435</v>
       </c>
       <c r="AE2" t="n">
-        <v>106197.4002602519</v>
+        <v>134268.1639156391</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.915708690596185e-06</v>
+        <v>6.69542548496283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>96062.06942842781</v>
+        <v>121453.798798118</v>
       </c>
     </row>
     <row r="3">
@@ -9237,28 +9237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.84189566193669</v>
+        <v>97.35779871531858</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.1384716698009</v>
+        <v>133.209235325188</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.10420349643346</v>
+        <v>120.4959328661236</v>
       </c>
       <c r="AD3" t="n">
-        <v>76841.89566193669</v>
+        <v>97357.79871531858</v>
       </c>
       <c r="AE3" t="n">
-        <v>105138.4716698009</v>
+        <v>133209.235325188</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.002324297787569e-06</v>
+        <v>6.843528520609341e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.147569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>95104.20349643346</v>
+        <v>120495.9328661236</v>
       </c>
     </row>
   </sheetData>
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.09370973918639</v>
+        <v>122.5601722601544</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.2701883190609</v>
+        <v>167.6922346594654</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.505454556718</v>
+        <v>151.6879231411421</v>
       </c>
       <c r="AD2" t="n">
-        <v>90093.70973918639</v>
+        <v>122560.1722601544</v>
       </c>
       <c r="AE2" t="n">
-        <v>123270.1883190609</v>
+        <v>167692.2346594654</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.268340157499906e-06</v>
+        <v>7.005558323823516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.098958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>111505.454556718</v>
+        <v>151687.9231411421</v>
       </c>
     </row>
   </sheetData>
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.33887960967313</v>
+        <v>88.0954570683827</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.87251409739227</v>
+        <v>120.5360908581826</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.81801450637029</v>
+        <v>109.0322955201752</v>
       </c>
       <c r="AD2" t="n">
-        <v>69338.87960967312</v>
+        <v>88095.4570683827</v>
       </c>
       <c r="AE2" t="n">
-        <v>94872.51409739227</v>
+        <v>120536.0908581826</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.376537668744778e-06</v>
+        <v>8.063475392003707e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85818.01450637029</v>
+        <v>109032.2955201752</v>
       </c>
     </row>
   </sheetData>
@@ -10128,28 +10128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.85447129506188</v>
+        <v>91.28208928541743</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.31445762141205</v>
+        <v>124.8961816418188</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.93146377125679</v>
+        <v>112.9762653588484</v>
       </c>
       <c r="AD2" t="n">
-        <v>71854.47129506189</v>
+        <v>91282.08928541743</v>
       </c>
       <c r="AE2" t="n">
-        <v>98314.45762141205</v>
+        <v>124896.1816418188</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.283826724883218e-06</v>
+        <v>7.652743817695207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.095486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>88931.46377125679</v>
+        <v>112976.2653588484</v>
       </c>
     </row>
   </sheetData>
